--- a/references/Pop_stats.xlsx
+++ b/references/Pop_stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\LU-python-course-project-2025\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ADC796-AAEB-4F4F-9C74-20EBA1988342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B0F4BD-F618-485E-962A-485CD9C37732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F672C57-36C1-466A-ACC0-07BE7FC92B00}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="65">
   <si>
     <t>City/Province</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>Ypres</t>
+  </si>
+  <si>
+    <t>Riga</t>
+  </si>
+  <si>
+    <t>https://oldlvi.lu.lv/lv/LVIZ_2011_files/4numurs/G_Gerhards_Epidemijas_LVIZ_2011_4.pdf (45-46 page)</t>
   </si>
 </sst>
 </file>
@@ -290,14 +296,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -633,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66176A7-21DE-4132-A487-5D3F9EEA404F}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1134,7 @@
       <c r="B43">
         <v>30000</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" t="s">
         <v>9</v>
       </c>
       <c r="D43">
@@ -1140,22 +1145,28 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>54</v>
+      <c r="A44" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B44">
-        <v>20000</v>
-      </c>
-      <c r="C44" t="s">
-        <v>34</v>
+        <v>6500</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44">
+        <v>4500</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="C45" t="s">
         <v>34</v>
@@ -1163,10 +1174,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="C46" t="s">
         <v>34</v>
@@ -1174,54 +1185,54 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47">
+        <v>100000</v>
+      </c>
+      <c r="C47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>57</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>75000</v>
       </c>
-      <c r="C47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48">
-        <v>25000</v>
-      </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49">
+        <v>25000</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>20000</v>
       </c>
-      <c r="C49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50">
-        <v>120000</v>
-      </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>40000</v>
+        <v>120000</v>
       </c>
       <c r="C51" t="s">
         <v>34</v>
@@ -1229,10 +1240,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="C52" t="s">
         <v>34</v>
@@ -1240,54 +1251,54 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53">
+        <v>35000</v>
+      </c>
+      <c r="C53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>61</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <v>60000</v>
       </c>
-      <c r="C53" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="C54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <v>110000</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>32</v>
       </c>
-      <c r="B55">
+      <c r="B56">
         <v>150000</v>
       </c>
-      <c r="C55" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56">
-        <v>40000</v>
-      </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B57">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
@@ -1295,7 +1306,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B58">
         <v>20000</v>
@@ -1305,24 +1316,37 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59">
+        <v>20000</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>62</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>40000</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E59">
-    <sortCondition ref="A1:A59"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E60">
+    <sortCondition ref="A31:A60"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="C32" r:id="rId1" xr:uid="{6CECE827-5564-4DFB-82C3-F370CCA26C36}"/>
+    <hyperlink ref="C44" r:id="rId2" xr:uid="{CCFE8811-074E-49EE-9DF4-047A4710CDEA}"/>
+    <hyperlink ref="E44" r:id="rId3" xr:uid="{7C7F04EF-4029-42B5-A5CA-9A6D0A120B4C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
--- a/references/Pop_stats.xlsx
+++ b/references/Pop_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\LU-python-course-project-2025\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B0F4BD-F618-485E-962A-485CD9C37732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9D0494-32EC-4300-92BC-F2A7CB31B418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F672C57-36C1-466A-ACC0-07BE7FC92B00}"/>
   </bookViews>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66176A7-21DE-4132-A487-5D3F9EEA404F}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/references/Pop_stats.xlsx
+++ b/references/Pop_stats.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\LU-python-course-project-2025\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9D0494-32EC-4300-92BC-F2A7CB31B418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ED8A43-3159-4F11-AF94-2D96DA695EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F672C57-36C1-466A-ACC0-07BE7FC92B00}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Recommended provinces" sheetId="2" r:id="rId1"/>
+    <sheet name="All stats" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="134">
   <si>
     <t>City/Province</t>
   </si>
@@ -215,9 +216,6 @@
     <t>Thessaloniki</t>
   </si>
   <si>
-    <t>Trnovo</t>
-  </si>
-  <si>
     <t>Toulouse</t>
   </si>
   <si>
@@ -231,13 +229,223 @@
   </si>
   <si>
     <t>https://oldlvi.lu.lv/lv/LVIZ_2011_files/4numurs/G_Gerhards_Epidemijas_LVIZ_2011_4.pdf (45-46 page)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Medieval_demography</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Modern France</t>
+  </si>
+  <si>
+    <t>Modern Germany and Scandinavia</t>
+  </si>
+  <si>
+    <t>Modern Italy</t>
+  </si>
+  <si>
+    <t>Tuscany (region)</t>
+  </si>
+  <si>
+    <t>Hungary (historical borders without Transylvania)</t>
+  </si>
+  <si>
+    <t>Transylvania</t>
+  </si>
+  <si>
+    <t>Wallachia</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Kievan Rus</t>
+  </si>
+  <si>
+    <t>Amalfi (Italy)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Historical_urban_community_sizes</t>
+  </si>
+  <si>
+    <t>L'Aquila (Italy)</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>or 50000</t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t>or 70000</t>
+  </si>
+  <si>
+    <t>or 40000</t>
+  </si>
+  <si>
+    <t>Fes</t>
+  </si>
+  <si>
+    <t>or 100000</t>
+  </si>
+  <si>
+    <t>or 45000</t>
+  </si>
+  <si>
+    <t>Norwich (UK)</t>
+  </si>
+  <si>
+    <t>or 200000</t>
+  </si>
+  <si>
+    <t>or 77000</t>
+  </si>
+  <si>
+    <t>or 20000</t>
+  </si>
+  <si>
+    <t>Salerno</t>
+  </si>
+  <si>
+    <t>or 50000 or 100000</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>or 35000</t>
+  </si>
+  <si>
+    <t>or 60000</t>
+  </si>
+  <si>
+    <t>York (UK)</t>
+  </si>
+  <si>
+    <t>Name of recommended province</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>York</t>
+  </si>
+  <si>
+    <t>Danzig</t>
+  </si>
+  <si>
+    <t>Stockholm</t>
+  </si>
+  <si>
+    <t>Trnovo (Veliko Tarnovo) (Bulgaria)</t>
+  </si>
+  <si>
+    <t>Burgos</t>
+  </si>
+  <si>
+    <t>Seville</t>
+  </si>
+  <si>
+    <t>Tunis</t>
+  </si>
+  <si>
+    <t>Ragusa</t>
+  </si>
+  <si>
+    <t>Izmir (Smyrna)</t>
+  </si>
+  <si>
+    <t>Jerusalem</t>
+  </si>
+  <si>
+    <t>Krakow</t>
+  </si>
+  <si>
+    <t>Trnava (Slovakia)</t>
+  </si>
+  <si>
+    <t>Pest (Budapest)</t>
+  </si>
+  <si>
+    <t>Cluj-Napoca</t>
+  </si>
+  <si>
+    <t>Belgrade</t>
+  </si>
+  <si>
+    <t>Târgoviște</t>
+  </si>
+  <si>
+    <t>Zagreb</t>
+  </si>
+  <si>
+    <t>Polotsk</t>
+  </si>
+  <si>
+    <t>Smolensk</t>
+  </si>
+  <si>
+    <t>Kyiv</t>
+  </si>
+  <si>
+    <t>Lviv</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod</t>
+  </si>
+  <si>
+    <t>Yaroslavl</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t>Copenhagen</t>
+  </si>
+  <si>
+    <t>Bern</t>
+  </si>
+  <si>
+    <t>Turku</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/History_of_Palermo</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Republic_of_Ragusa</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/History_of_the_Jews_in_%C4%B0zmir</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Medieval_Jerusalem</t>
+  </si>
+  <si>
+    <t>Vilnius</t>
+  </si>
+  <si>
+    <t>Tallinn</t>
+  </si>
+  <si>
+    <t>Antalya</t>
+  </si>
+  <si>
+    <t>If population count is not known =&gt; the cell would be pink (it is a ROUGH estimation)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,8 +470,16 @@
       <charset val="186"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,6 +498,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -296,13 +518,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -637,23 +866,768 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66176A7-21DE-4132-A487-5D3F9EEA404F}">
-  <dimension ref="A1:E60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15E336A-67D8-4AB6-AA9B-A495956018A1}">
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="18" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5500</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1">
+        <v>35000</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1">
+        <v>30000</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="8">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="1">
+        <v>400000</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>60000</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1">
+        <v>150000</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>32000</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1">
+        <v>40000</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="1">
+        <v>175000</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1">
+        <v>110000</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1">
+        <v>90000</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1">
+        <v>55000</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1">
+        <v>150000</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="8">
+        <v>30000</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="8">
+        <v>10000</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="8">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="8">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="1">
+        <v>35000</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>80000</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1">
+        <v>24000</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="1">
+        <v>32000</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="1">
+        <v>120000</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="1">
+        <v>35000</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="1">
+        <v>25000</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="1">
+        <v>55000</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="3">
+        <v>51000</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="1">
+        <v>200000</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="1">
+        <v>40000</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="8">
+        <v>30000</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="1">
+        <v>6500</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="1">
+        <v>40000</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="1">
+        <v>40000</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="8">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="1">
+        <v>75000</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="8">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="8">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="1">
+        <v>120000</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" s="1">
+        <v>42000</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>40000</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" s="1">
+        <v>35000</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" s="8">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" s="1">
+        <v>150000</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="8">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" s="1">
+        <v>23000</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B72" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C72">
+    <sortCondition ref="A1:A72"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66176A7-21DE-4132-A487-5D3F9EEA404F}">
+  <dimension ref="A1:H107"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,684 +1643,1209 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="H1" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>21000</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="1">
+        <v>12000</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="1">
         <v>5000</v>
       </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="1">
         <v>25000</v>
       </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="1">
         <v>50000</v>
       </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5500</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B6">
+      <c r="B8" s="1">
         <v>50000</v>
       </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B7">
+      <c r="B9" s="1">
         <v>60000</v>
       </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B8">
+      <c r="B10" s="1">
         <v>35000</v>
       </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B9">
+      <c r="B11" s="1">
         <v>50000</v>
       </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B10">
+      <c r="B12" s="1">
         <v>30000</v>
       </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2500000</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="1">
+        <v>400000</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
+      <c r="B15" s="1">
         <v>60000</v>
       </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B12">
-        <v>70000</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B16" s="1">
+        <v>150000</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B13">
+      <c r="B17" s="1">
         <v>60000</v>
       </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14">
+      <c r="B18" s="1">
         <v>20000</v>
       </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B15">
+      <c r="B19" s="1">
         <v>20000</v>
       </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3700000</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
+      <c r="B21" s="1">
         <v>32000</v>
       </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B17">
+      <c r="B22" s="1">
         <v>40000</v>
       </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="C22" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="1">
+        <v>175000</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B18">
+      <c r="B24" s="1">
         <v>110000</v>
       </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B19">
+      <c r="B25" s="1">
         <v>110000</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C25" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B20">
+      <c r="B26" s="1">
         <v>90000</v>
       </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B21">
-        <v>70000</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="B27" s="1">
+        <v>55000</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B22">
+      <c r="B28" s="1">
         <v>150000</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C28" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2550000</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="1">
+        <v>6000000</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="1">
+        <v>40000</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B23">
+      <c r="B32" s="1">
         <v>45000</v>
       </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C32" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B24">
+      <c r="B33" s="1">
         <v>35000</v>
       </c>
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="C33" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B34" s="1">
         <v>80000</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D34" s="1">
         <v>40000</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B26">
+      <c r="B35" s="1">
         <v>15000</v>
       </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C35" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B27">
+      <c r="B36" s="1">
         <v>24000</v>
       </c>
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="C36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B28">
+      <c r="B37" s="1">
         <v>20000</v>
       </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="C37" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B29">
+      <c r="B38" s="1">
         <v>24000</v>
       </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="C38" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B30">
+      <c r="B39" s="1">
         <v>32000</v>
       </c>
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="C39" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B31">
+      <c r="B40" s="1">
         <v>150000</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C40" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B32">
+      <c r="B41" s="1">
         <v>120000</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C41" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="1">
+        <v>20000000</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="1">
+        <v>11500000</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="1">
+        <v>12000000</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B33">
+      <c r="B45" s="1">
         <v>35000</v>
       </c>
-      <c r="C33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B34">
+      <c r="B46" s="1">
         <v>25000</v>
       </c>
-      <c r="C34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C46" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B35">
+      <c r="B47" s="1">
         <v>55000</v>
       </c>
-      <c r="C35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="C47" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="1">
+        <v>22500</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B36">
+      <c r="B49" s="1">
         <v>20000</v>
       </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="C49" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B37">
+      <c r="B50" s="1">
         <v>35000</v>
       </c>
-      <c r="C37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="C50" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B38">
+      <c r="B51" s="1">
         <v>40000</v>
       </c>
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="C51" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B39">
+      <c r="B52" s="1">
         <v>50000</v>
       </c>
-      <c r="C39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="C52" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B40">
+      <c r="B53" s="1">
         <v>150000</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C53" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="F53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B41">
+      <c r="B54" s="1">
         <v>275000</v>
       </c>
-      <c r="C41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="C54" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B42">
-        <v>77000</v>
-      </c>
-      <c r="C42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="B55" s="1">
+        <v>40000</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B43">
+      <c r="B56" s="1">
         <v>30000</v>
       </c>
-      <c r="C43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43">
+      <c r="C56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="1">
         <v>11000</v>
       </c>
-      <c r="E43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="E56" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="1">
+        <v>6500</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B44">
-        <v>6500</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="D57" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="1">
+        <v>40000</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="1">
+        <v>40000</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="1">
+        <v>75000</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="1">
+        <v>25000</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" s="1">
+        <v>120000</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" s="1">
+        <v>42000</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B67" s="1">
+        <v>40000</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="1">
+        <v>550000</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D44">
-        <v>4500</v>
-      </c>
-      <c r="E44" s="2" t="s">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69" s="1">
+        <v>35000</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B72" s="1">
+        <v>110000</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" s="1">
+        <v>150000</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="1">
+        <v>40000</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="1">
         <v>20000</v>
       </c>
-      <c r="C45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46">
+      <c r="C75" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="1">
+        <v>300000</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" s="1">
+        <v>23000</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B79" s="1">
+        <v>30000</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B80" s="3">
+        <v>51000</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B81" s="8">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B82" s="8">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B83" s="8">
         <v>40000</v>
       </c>
-      <c r="C46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47">
-        <v>100000</v>
-      </c>
-      <c r="C47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48">
-        <v>75000</v>
-      </c>
-      <c r="C48" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B84" s="8">
+        <v>30000</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" s="8">
+        <v>30000</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B86" s="8">
+        <v>10000</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B87" s="8">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B88" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B91" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B92" s="8">
         <v>25000</v>
       </c>
-      <c r="C49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B93" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B95" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B96" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B97" s="8">
         <v>20000</v>
       </c>
-      <c r="C50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51">
-        <v>120000</v>
-      </c>
-      <c r="C51" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52">
-        <v>40000</v>
-      </c>
-      <c r="C52" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53">
-        <v>35000</v>
-      </c>
-      <c r="C53" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54">
-        <v>60000</v>
-      </c>
-      <c r="C54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B55">
-        <v>110000</v>
-      </c>
-      <c r="C55" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56">
-        <v>150000</v>
-      </c>
-      <c r="C56" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57">
-        <v>40000</v>
-      </c>
-      <c r="C57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B58">
-        <v>20000</v>
-      </c>
-      <c r="C58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B59">
-        <v>20000</v>
-      </c>
-      <c r="C59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60">
-        <v>40000</v>
-      </c>
-      <c r="C60" t="s">
-        <v>34</v>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B98" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B99" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B100" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B101" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B102" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B103" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B104" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B105" s="8">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B106" s="8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B107" s="8">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E60">
-    <sortCondition ref="A31:A60"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G79">
+    <sortCondition ref="A36:A79"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C32" r:id="rId1" xr:uid="{6CECE827-5564-4DFB-82C3-F370CCA26C36}"/>
-    <hyperlink ref="C44" r:id="rId2" xr:uid="{CCFE8811-074E-49EE-9DF4-047A4710CDEA}"/>
-    <hyperlink ref="E44" r:id="rId3" xr:uid="{7C7F04EF-4029-42B5-A5CA-9A6D0A120B4C}"/>
+    <hyperlink ref="C57" r:id="rId1" xr:uid="{CCFE8811-074E-49EE-9DF4-047A4710CDEA}"/>
+    <hyperlink ref="E57" r:id="rId2" xr:uid="{7C7F04EF-4029-42B5-A5CA-9A6D0A120B4C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/references/Pop_stats.xlsx
+++ b/references/Pop_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\LU-python-course-project-2025\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ED8A43-3159-4F11-AF94-2D96DA695EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1485E77-F68F-4B59-831A-FDF9D8DCB793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F672C57-36C1-466A-ACC0-07BE7FC92B00}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6F672C57-36C1-466A-ACC0-07BE7FC92B00}"/>
   </bookViews>
   <sheets>
     <sheet name="Recommended provinces" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="141">
   <si>
     <t>City/Province</t>
   </si>
@@ -270,9 +270,6 @@
     <t>https://en.wikipedia.org/wiki/Historical_urban_community_sizes</t>
   </si>
   <si>
-    <t>L'Aquila (Italy)</t>
-  </si>
-  <si>
     <t>Berlin</t>
   </si>
   <si>
@@ -439,6 +436,30 @@
   </si>
   <si>
     <t>If population count is not known =&gt; the cell would be pink (it is a ROUGH estimation)</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Cordova</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>Aquila (Italy)</t>
+  </si>
+  <si>
+    <t>Cremona</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Ferrara</t>
   </si>
 </sst>
 </file>
@@ -518,20 +539,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -548,6 +566,109 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4FADFCC-8BAB-9A6F-2494-84CB87E35158}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12620625" y="1333500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>357927</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>96523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>570941</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>86998</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A3950AB-304F-64F3-2938-6B24C117179E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10540152" y="96523"/>
+          <a:ext cx="7528214" cy="5133975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -867,11 +988,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15E336A-67D8-4AB6-AA9B-A495956018A1}">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,23 +1005,23 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>133</v>
+      <c r="I1" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="8">
+        <v>131</v>
+      </c>
+      <c r="B2" s="6">
         <v>10000</v>
       </c>
     </row>
@@ -908,7 +1029,7 @@
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>10000</v>
       </c>
     </row>
@@ -917,23 +1038,23 @@
         <v>36</v>
       </c>
       <c r="B4" s="1">
-        <v>50000</v>
+        <v>48000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="8">
+        <v>112</v>
+      </c>
+      <c r="B5" s="6">
         <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1">
         <v>5500</v>
@@ -944,9 +1065,9 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="8">
+        <v>123</v>
+      </c>
+      <c r="B7" s="6">
         <v>5000</v>
       </c>
     </row>
@@ -962,7 +1083,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="1">
@@ -985,15 +1106,15 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="8">
+        <v>102</v>
+      </c>
+      <c r="B11" s="6">
         <v>25000</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1">
         <v>400000</v>
@@ -1004,21 +1125,21 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="8">
+        <v>111</v>
+      </c>
+      <c r="B13" s="6">
         <v>5000</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>60000</v>
+        <v>54000</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1034,15 +1155,15 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="8">
+        <v>122</v>
+      </c>
+      <c r="B16" s="6">
         <v>5000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" s="1">
         <v>20000</v>
@@ -1052,7 +1173,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B18" s="1">
@@ -1063,18 +1184,18 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="1">
         <v>32000</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="1">
@@ -1086,7 +1207,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" s="1">
         <v>175000</v>
@@ -1129,7 +1250,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="1">
@@ -1141,44 +1262,44 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="8">
+        <v>106</v>
+      </c>
+      <c r="B26" s="6">
         <v>30000</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="8">
+        <v>107</v>
+      </c>
+      <c r="B27" s="6">
         <v>10000</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" s="8">
+        <v>108</v>
+      </c>
+      <c r="B28" s="6">
         <v>8000</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="8">
+        <v>117</v>
+      </c>
+      <c r="B29" s="6">
         <v>20000</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B30" s="1">
@@ -1189,13 +1310,13 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="1">
         <v>80000</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1212,14 +1333,14 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" s="8">
+        <v>118</v>
+      </c>
+      <c r="B33" s="6">
         <v>10000</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="1">
@@ -1275,14 +1396,14 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B39" s="8">
+        <v>119</v>
+      </c>
+      <c r="B39" s="6">
         <v>5000</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="1">
@@ -1294,9 +1415,9 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B41" s="8">
+        <v>121</v>
+      </c>
+      <c r="B41" s="6">
         <v>5000</v>
       </c>
     </row>
@@ -1304,15 +1425,15 @@
       <c r="A42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="1">
         <v>51000</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B43" s="1">
@@ -1324,17 +1445,17 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="8">
+        <v>110</v>
+      </c>
+      <c r="B44" s="6">
         <v>10000</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B45" s="8">
+      <c r="A45" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="6">
         <v>5000</v>
       </c>
     </row>
@@ -1351,13 +1472,13 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B47" s="8">
+        <v>105</v>
+      </c>
+      <c r="B47" s="6">
         <v>30000</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1371,7 +1492,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -1382,7 +1503,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
@@ -1393,8 +1514,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B51" s="1">
@@ -1404,58 +1525,64 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B52" s="8">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="6">
         <v>45000</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B53" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="1">
         <v>75000</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B54" s="8">
+      <c r="F53" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="6">
         <v>10000</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" s="8">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="6">
         <v>8000</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B56" s="8">
+        <v>130</v>
+      </c>
+      <c r="B56" s="6">
         <v>4000</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B57" s="8">
+        <v>113</v>
+      </c>
+      <c r="B57" s="6">
         <v>25000</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
@@ -1466,9 +1593,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B59" s="1">
         <v>42000</v>
@@ -1477,28 +1604,28 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B61" s="8">
+        <v>109</v>
+      </c>
+      <c r="B61" s="6">
         <v>5000</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>102</v>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B62" s="1">
         <v>35000</v>
@@ -1507,27 +1634,27 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B63" s="8">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" s="6">
         <v>40000</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B64" s="8">
+        <v>124</v>
+      </c>
+      <c r="B64" s="6">
         <v>5000</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B65" s="8">
+        <v>124</v>
+      </c>
+      <c r="B65" s="6">
         <v>5000</v>
       </c>
     </row>
@@ -1543,7 +1670,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B67" s="1">
@@ -1566,23 +1693,23 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B69" s="8">
+        <v>129</v>
+      </c>
+      <c r="B69" s="6">
         <v>7000</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B70" s="8">
+        <v>120</v>
+      </c>
+      <c r="B70" s="6">
         <v>5000</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B71" s="1">
         <v>23000</v>
@@ -1593,10 +1720,21 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B72" s="8">
+        <v>114</v>
+      </c>
+      <c r="B72" s="6">
         <v>5000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" s="1">
+        <v>31000</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1610,11 +1748,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66176A7-21DE-4132-A487-5D3F9EEA404F}">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:R114"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,7 +1765,7 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1643,11 +1781,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -1658,7 +1796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -1669,7 +1807,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -1680,7 +1818,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1691,20 +1829,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="1">
-        <v>50000</v>
+        <v>48000</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="1">
         <v>5500</v>
@@ -1713,7 +1851,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1724,24 +1862,31 @@
         <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="R8"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="1">
+        <v>40000</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1">
         <v>60000</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1752,7 +1897,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -1763,7 +1908,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -1774,7 +1919,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>73</v>
       </c>
@@ -1785,9 +1930,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="1">
         <v>400000</v>
@@ -1796,18 +1941,18 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1">
-        <v>60000</v>
+        <v>54000</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -1818,7 +1963,7 @@
         <v>76</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>34</v>
@@ -1835,7 +1980,7 @@
         <v>34</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>76</v>
@@ -1898,7 +2043,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="1">
         <v>175000</v>
@@ -1940,7 +2085,7 @@
         <v>9</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>76</v>
@@ -1957,7 +2102,7 @@
         <v>76</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>34</v>
@@ -1998,7 +2143,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="B31" s="1">
         <v>40000</v>
@@ -2018,7 +2163,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
@@ -2029,14 +2174,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="1">
         <v>80000</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="1">
@@ -2045,8 +2190,14 @@
       <c r="E34" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>29</v>
       </c>
@@ -2057,7 +2208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>49</v>
       </c>
@@ -2068,7 +2219,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>23</v>
       </c>
@@ -2079,7 +2230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
@@ -2090,7 +2241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -2101,8 +2252,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="1">
@@ -2112,18 +2263,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B41" s="1">
         <v>120000</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -2134,7 +2285,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -2145,7 +2296,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -2156,7 +2307,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -2167,13 +2318,13 @@
         <v>34</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
@@ -2184,7 +2335,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -2195,9 +2346,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B48" s="1">
         <v>22500</v>
@@ -2244,10 +2395,10 @@
         <v>53</v>
       </c>
       <c r="B52" s="1">
-        <v>50000</v>
+        <v>51000</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2261,7 +2412,7 @@
         <v>31</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>76</v>
@@ -2289,7 +2440,7 @@
         <v>76</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>9</v>
@@ -2319,13 +2470,13 @@
       <c r="B57" s="1">
         <v>6500</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D57" s="1">
         <v>4500</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2340,7 +2491,7 @@
         <v>76</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>34</v>
@@ -2359,7 +2510,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B60" s="1">
         <v>10000</v>
@@ -2384,9 +2535,15 @@
         <v>57</v>
       </c>
       <c r="B62" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" s="1">
         <v>75000</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2412,7 +2569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>58</v>
       </c>
@@ -2423,15 +2580,15 @@
         <v>34</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="B66" s="1">
         <v>42000</v>
@@ -2440,24 +2597,30 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B67" s="1">
+        <v>30000</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" s="1">
         <v>40000</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="F67" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>71</v>
       </c>
@@ -2468,9 +2631,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>102</v>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B69" s="1">
         <v>35000</v>
@@ -2479,7 +2642,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -2490,7 +2653,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>60</v>
       </c>
@@ -2501,14 +2664,14 @@
         <v>76</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B72" s="1">
@@ -2518,18 +2681,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B73" s="1">
         <v>150000</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C73" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>15</v>
       </c>
@@ -2540,7 +2703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>25</v>
       </c>
@@ -2551,7 +2714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>72</v>
       </c>
@@ -2562,7 +2725,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>28</v>
       </c>
@@ -2573,9 +2736,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B78" s="1">
         <v>23000</v>
@@ -2584,7 +2747,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>61</v>
       </c>
@@ -2595,133 +2758,133 @@
         <v>76</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="1">
         <v>51000</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" s="6">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="8">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
+      <c r="B82" s="6">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="8">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B83" s="8">
+      <c r="B83" s="6">
         <v>40000</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B84" s="8">
+        <v>105</v>
+      </c>
+      <c r="B84" s="6">
         <v>30000</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B85" s="8">
+        <v>106</v>
+      </c>
+      <c r="B85" s="6">
         <v>30000</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B86" s="8">
+        <v>107</v>
+      </c>
+      <c r="B86" s="6">
         <v>10000</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B87" s="8">
+        <v>108</v>
+      </c>
+      <c r="B87" s="6">
         <v>8000</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B88" s="8">
+        <v>109</v>
+      </c>
+      <c r="B88" s="6">
         <v>5000</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B89" s="8">
+        <v>110</v>
+      </c>
+      <c r="B89" s="6">
         <v>10000</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B90" s="8">
+        <v>111</v>
+      </c>
+      <c r="B90" s="6">
         <v>5000</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B91" s="8">
+        <v>112</v>
+      </c>
+      <c r="B91" s="6">
         <v>10000</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B92" s="8">
+        <v>113</v>
+      </c>
+      <c r="B92" s="6">
         <v>25000</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B93" s="8">
+        <v>114</v>
+      </c>
+      <c r="B93" s="6">
         <v>5000</v>
       </c>
     </row>
@@ -2729,112 +2892,189 @@
       <c r="A94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B94" s="8">
+      <c r="B94" s="6">
         <v>10000</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B95" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B95" s="8">
+      <c r="B96" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97" s="6">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B98" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B99" s="6">
         <v>5000</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B96" s="8">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B100" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B101" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B102" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B103" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B104" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B105" s="6">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B106" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B107" s="6">
         <v>10000</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B97" s="8">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B98" s="8">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B99" s="8">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B100" s="8">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B101" s="8">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B102" s="8">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B103" s="8">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B104" s="8">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B105" s="8">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B106" s="8">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B107" s="8">
-        <v>10000</v>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B108" s="1">
+        <v>31000</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B109" s="1">
+        <v>60000</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B110" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B111" s="1">
+        <v>40000</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B112" s="1">
+        <v>40000</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B113" s="1">
+        <v>38000</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B114" s="1">
+        <v>36000</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2847,5 +3087,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/references/Pop_stats.xlsx
+++ b/references/Pop_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\LU-python-course-project-2025\references\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\Documents\GitHub\LU-python-course-project-2025\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1485E77-F68F-4B59-831A-FDF9D8DCB793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0A82B4-D7D7-4172-B9F7-7ED1F3ADE195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6F672C57-36C1-466A-ACC0-07BE7FC92B00}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6F672C57-36C1-466A-ACC0-07BE7FC92B00}"/>
   </bookViews>
   <sheets>
     <sheet name="Recommended provinces" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="142">
   <si>
     <t>City/Province</t>
   </si>
@@ -460,6 +460,9 @@
   </si>
   <si>
     <t>Ferrara</t>
+  </si>
+  <si>
+    <t>Table 1.</t>
   </si>
 </sst>
 </file>
@@ -539,7 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -549,7 +552,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -990,20 +992,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15E336A-67D8-4AB6-AA9B-A495956018A1}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>95</v>
       </c>
@@ -1017,7 +1019,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>131</v>
       </c>
@@ -1025,7 +1027,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1033,7 +1035,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1044,7 +1046,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>112</v>
       </c>
@@ -1052,7 +1054,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>77</v>
       </c>
@@ -1063,7 +1065,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>123</v>
       </c>
@@ -1071,7 +1073,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -1082,7 +1084,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -1093,7 +1095,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -1104,7 +1106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>102</v>
       </c>
@@ -1112,7 +1114,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>79</v>
       </c>
@@ -1123,7 +1125,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>111</v>
       </c>
@@ -1131,8 +1133,8 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1">
@@ -1142,7 +1144,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -1153,7 +1155,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>122</v>
       </c>
@@ -1161,7 +1163,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>99</v>
       </c>
@@ -1172,7 +1174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
@@ -1183,7 +1185,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1194,7 +1196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -1205,7 +1207,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>82</v>
       </c>
@@ -1216,7 +1218,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -1227,7 +1229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -1238,7 +1240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1249,8 +1251,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="1">
@@ -1260,7 +1262,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>106</v>
       </c>
@@ -1271,7 +1273,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>107</v>
       </c>
@@ -1282,7 +1284,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>108</v>
       </c>
@@ -1290,7 +1292,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>117</v>
       </c>
@@ -1298,7 +1300,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>47</v>
       </c>
@@ -1309,7 +1311,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -1320,7 +1322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -1331,7 +1333,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>118</v>
       </c>
@@ -1339,7 +1341,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
@@ -1350,7 +1352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -1361,7 +1363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
@@ -1372,7 +1374,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>51</v>
       </c>
@@ -1383,7 +1385,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
@@ -1394,7 +1396,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>119</v>
       </c>
@@ -1402,7 +1404,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>24</v>
       </c>
@@ -1413,7 +1415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>121</v>
       </c>
@@ -1421,7 +1423,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>53</v>
       </c>
@@ -1432,7 +1434,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>14</v>
       </c>
@@ -1443,7 +1445,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>110</v>
       </c>
@@ -1451,7 +1453,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>115</v>
       </c>
@@ -1459,7 +1461,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
@@ -1470,7 +1472,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>105</v>
       </c>
@@ -1481,7 +1483,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>62</v>
       </c>
@@ -1492,7 +1494,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -1503,7 +1505,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
@@ -1514,7 +1516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -1525,7 +1527,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>103</v>
       </c>
@@ -1533,7 +1535,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
@@ -1550,7 +1552,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>116</v>
       </c>
@@ -1558,7 +1560,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>100</v>
       </c>
@@ -1566,7 +1568,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>130</v>
       </c>
@@ -1574,7 +1576,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>113</v>
       </c>
@@ -1582,7 +1584,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
@@ -1593,7 +1595,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>91</v>
       </c>
@@ -1604,7 +1606,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
@@ -1615,7 +1617,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>109</v>
       </c>
@@ -1623,7 +1625,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>101</v>
       </c>
@@ -1634,7 +1636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>104</v>
       </c>
@@ -1642,7 +1644,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>124</v>
       </c>
@@ -1650,7 +1652,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>124</v>
       </c>
@@ -1658,7 +1660,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>60</v>
       </c>
@@ -1669,7 +1671,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>32</v>
       </c>
@@ -1680,7 +1682,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>25</v>
       </c>
@@ -1691,7 +1693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>129</v>
       </c>
@@ -1699,7 +1701,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>120</v>
       </c>
@@ -1707,7 +1709,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>98</v>
       </c>
@@ -1718,7 +1720,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>114</v>
       </c>
@@ -1726,7 +1728,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>133</v>
       </c>
@@ -1750,22 +1752,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66176A7-21DE-4132-A487-5D3F9EEA404F}">
   <dimension ref="A1:R114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1785,7 +1787,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -1796,7 +1798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -1807,7 +1809,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -1818,7 +1820,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1829,7 +1831,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1837,10 +1839,10 @@
         <v>48000</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>77</v>
       </c>
@@ -1851,7 +1853,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1869,7 +1871,7 @@
       </c>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -1886,7 +1888,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1897,7 +1899,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -1908,7 +1910,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -1919,7 +1921,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>73</v>
       </c>
@@ -1930,7 +1932,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -1941,7 +1943,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1952,7 +1954,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -1969,7 +1971,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -1986,7 +1988,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -1997,7 +1999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,7 +2010,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
@@ -2019,7 +2021,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -2030,7 +2032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -2041,7 +2043,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
@@ -2052,7 +2054,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
@@ -2063,7 +2065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -2074,7 +2076,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
@@ -2091,7 +2093,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -2108,7 +2110,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -2119,7 +2121,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
@@ -2130,7 +2132,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
@@ -2141,7 +2143,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>137</v>
       </c>
@@ -2152,7 +2154,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
@@ -2163,7 +2165,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
@@ -2174,7 +2176,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
@@ -2190,14 +2192,8 @@
       <c r="E34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>29</v>
       </c>
@@ -2208,7 +2204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>49</v>
       </c>
@@ -2219,7 +2215,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>23</v>
       </c>
@@ -2230,7 +2226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
@@ -2241,7 +2237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -2252,7 +2248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>10</v>
       </c>
@@ -2263,7 +2259,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>10</v>
       </c>
@@ -2274,7 +2270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -2285,7 +2281,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -2296,7 +2292,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -2307,7 +2303,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -2324,7 +2320,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
@@ -2335,7 +2331,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -2346,7 +2342,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>85</v>
       </c>
@@ -2357,7 +2353,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>24</v>
       </c>
@@ -2368,7 +2364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
@@ -2379,7 +2375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
@@ -2390,7 +2386,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -2401,7 +2397,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>14</v>
       </c>
@@ -2418,7 +2414,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>14</v>
       </c>
@@ -2429,7 +2425,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>11</v>
       </c>
@@ -2446,7 +2442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>19</v>
       </c>
@@ -2463,7 +2459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>62</v>
       </c>
@@ -2480,7 +2476,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
@@ -2497,7 +2493,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
@@ -2508,7 +2504,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>89</v>
       </c>
@@ -2519,7 +2515,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>56</v>
       </c>
@@ -2530,7 +2526,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>57</v>
       </c>
@@ -2547,7 +2543,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>20</v>
       </c>
@@ -2558,7 +2554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>27</v>
       </c>
@@ -2569,7 +2565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>58</v>
       </c>
@@ -2586,7 +2582,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>91</v>
       </c>
@@ -2597,7 +2593,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2620,7 +2616,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>71</v>
       </c>
@@ -2631,7 +2627,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>101</v>
       </c>
@@ -2642,7 +2638,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -2653,7 +2649,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>60</v>
       </c>
@@ -2670,7 +2666,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>32</v>
       </c>
@@ -2681,7 +2677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>32</v>
       </c>
@@ -2692,7 +2688,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>15</v>
       </c>
@@ -2703,7 +2699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>25</v>
       </c>
@@ -2714,7 +2710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>72</v>
       </c>
@@ -2725,7 +2721,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>28</v>
       </c>
@@ -2736,7 +2732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>94</v>
       </c>
@@ -2747,7 +2743,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>61</v>
       </c>
@@ -2764,7 +2760,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>53</v>
       </c>
@@ -2775,7 +2771,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>102</v>
       </c>
@@ -2783,7 +2779,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>103</v>
       </c>
@@ -2791,7 +2787,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>104</v>
       </c>
@@ -2799,7 +2795,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>105</v>
       </c>
@@ -2810,7 +2806,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>106</v>
       </c>
@@ -2821,7 +2817,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>107</v>
       </c>
@@ -2832,7 +2828,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>108</v>
       </c>
@@ -2840,7 +2836,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>109</v>
       </c>
@@ -2848,7 +2844,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>110</v>
       </c>
@@ -2856,7 +2852,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>111</v>
       </c>
@@ -2864,7 +2860,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>112</v>
       </c>
@@ -2872,7 +2868,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>113</v>
       </c>
@@ -2880,7 +2876,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>114</v>
       </c>
@@ -2888,7 +2884,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>33</v>
       </c>
@@ -2896,7 +2892,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>115</v>
       </c>
@@ -2904,7 +2900,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>116</v>
       </c>
@@ -2912,7 +2908,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>117</v>
       </c>
@@ -2920,7 +2916,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>118</v>
       </c>
@@ -2928,7 +2924,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>119</v>
       </c>
@@ -2936,7 +2932,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>120</v>
       </c>
@@ -2944,7 +2940,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>121</v>
       </c>
@@ -2952,7 +2948,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>122</v>
       </c>
@@ -2960,7 +2956,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>123</v>
       </c>
@@ -2968,7 +2964,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>124</v>
       </c>
@@ -2976,7 +2972,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>129</v>
       </c>
@@ -2984,7 +2980,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>130</v>
       </c>
@@ -2992,7 +2988,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>131</v>
       </c>
@@ -3000,7 +2996,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>133</v>
       </c>
@@ -3008,10 +3004,10 @@
         <v>31000</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>134</v>
       </c>
@@ -3019,10 +3015,10 @@
         <v>60000</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>135</v>
       </c>
@@ -3030,10 +3026,10 @@
         <v>44000</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>136</v>
       </c>
@@ -3041,10 +3037,10 @@
         <v>40000</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>138</v>
       </c>
@@ -3052,10 +3048,10 @@
         <v>40000</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>139</v>
       </c>
@@ -3063,10 +3059,10 @@
         <v>38000</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>140</v>
       </c>
@@ -3074,7 +3070,7 @@
         <v>36000</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/references/Pop_stats.xlsx
+++ b/references/Pop_stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\Documents\GitHub\LU-python-course-project-2025\references\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annaz\OneDrive\Desktop\Github\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0A82B4-D7D7-4172-B9F7-7ED1F3ADE195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C107AECA-06C1-43B1-8CD0-131A2B820521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6F672C57-36C1-466A-ACC0-07BE7FC92B00}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6F672C57-36C1-466A-ACC0-07BE7FC92B00}"/>
   </bookViews>
   <sheets>
     <sheet name="Recommended provinces" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="156">
   <si>
     <t>City/Province</t>
   </si>
@@ -463,6 +463,48 @@
   </si>
   <si>
     <t>Table 1.</t>
+  </si>
+  <si>
+    <t>Durres</t>
+  </si>
+  <si>
+    <t>https://github.com/JakeRuss/bairoch-1988/blob/master/bairoch-1988.csv</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>Olomouc</t>
+  </si>
+  <si>
+    <t>Debrecen (Ungārija)</t>
+  </si>
+  <si>
+    <t>Deventer</t>
+  </si>
+  <si>
+    <t>Middelburg</t>
+  </si>
+  <si>
+    <t>Bergen</t>
+  </si>
+  <si>
+    <t>Wroclaw</t>
+  </si>
+  <si>
+    <t>Suceava</t>
+  </si>
+  <si>
+    <t>Cimpulung</t>
+  </si>
+  <si>
+    <t>Geneve</t>
+  </si>
+  <si>
+    <t>Zuerich</t>
+  </si>
+  <si>
+    <t>Lund (Zviedrija)</t>
   </si>
 </sst>
 </file>
@@ -503,7 +545,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,6 +570,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -542,7 +590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -552,6 +600,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -990,11 +1040,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15E336A-67D8-4AB6-AA9B-A495956018A1}">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1031,8 +1081,11 @@
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="6">
-        <v>10000</v>
+      <c r="B3" s="7">
+        <v>25000</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -1048,59 +1101,62 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="6">
-        <v>10000</v>
+        <v>149</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7000</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5500</v>
+        <v>112</v>
+      </c>
+      <c r="B6" s="7">
+        <v>20000</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="6">
-        <v>5000</v>
+        <v>77</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5500</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>35000</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>50000</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="1">
-        <v>30000</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>34</v>
@@ -1108,89 +1164,92 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="6">
-        <v>25000</v>
+        <v>38</v>
+      </c>
+      <c r="B11" s="1">
+        <v>30000</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="1">
-        <v>400000</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>76</v>
+        <v>102</v>
+      </c>
+      <c r="B12" s="6">
+        <v>25000</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="6">
-        <v>5000</v>
+        <v>79</v>
+      </c>
+      <c r="B13" s="1">
+        <v>400000</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="B14" s="1">
-        <v>54000</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>10000</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="1">
-        <v>150000</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>76</v>
+        <v>111</v>
+      </c>
+      <c r="B15" s="6">
+        <v>5000</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="6">
-        <v>5000</v>
+        <v>12</v>
+      </c>
+      <c r="B16" s="1">
+        <v>54000</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1">
-        <v>20000</v>
+        <v>150000</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="1">
-        <v>20000</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>34</v>
+      <c r="A18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="B19" s="1">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
@@ -1198,174 +1257,180 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="B20" s="1">
-        <v>40000</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>34</v>
+        <v>3000</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="B21" s="1">
-        <v>175000</v>
+        <v>13000</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="B22" s="1">
-        <v>110000</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>9</v>
+        <v>25000</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>13</v>
+      <c r="A23" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B23" s="1">
-        <v>90000</v>
+        <v>20000</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1">
-        <v>55000</v>
+        <v>32000</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1">
-        <v>150000</v>
+        <v>40000</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="6">
-        <v>30000</v>
+        <v>82</v>
+      </c>
+      <c r="B26" s="1">
+        <v>175000</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="6">
-        <v>10000</v>
+        <v>8</v>
+      </c>
+      <c r="B27" s="1">
+        <v>110000</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="6">
-        <v>8000</v>
+        <v>153</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" s="6">
-        <v>20000</v>
+        <v>13</v>
+      </c>
+      <c r="B29" s="1">
+        <v>90000</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
-        <v>47</v>
+      <c r="A30" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B30" s="1">
-        <v>35000</v>
+        <v>55000</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>80000</v>
+        <v>150000</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="1">
-        <v>24000</v>
+        <v>106</v>
+      </c>
+      <c r="B32" s="6">
+        <v>30000</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B33" s="6">
         <v>10000</v>
       </c>
+      <c r="C33" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="1">
-        <v>32000</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>9</v>
+        <v>108</v>
+      </c>
+      <c r="B34" s="6">
+        <v>10000</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="1">
-        <v>120000</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>9</v>
+        <v>117</v>
+      </c>
+      <c r="B35" s="6">
+        <v>20000</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>50</v>
+      <c r="A36" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B36" s="1">
         <v>35000</v>
@@ -1376,21 +1441,21 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B37" s="1">
-        <v>25000</v>
+        <v>80000</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B38" s="1">
-        <v>55000</v>
+        <v>24000</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>34</v>
@@ -1398,209 +1463,215 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" s="6">
-        <v>5000</v>
+        <v>155</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="1">
-        <v>20000</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>9</v>
+        <v>118</v>
+      </c>
+      <c r="B40" s="6">
+        <v>10000</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B41" s="6">
-        <v>5000</v>
+        <v>18</v>
+      </c>
+      <c r="B41" s="1">
+        <v>32000</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="B42" s="1">
-        <v>51000</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>31</v>
+        <v>8000</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
-        <v>14</v>
+      <c r="A43" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B43" s="1">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" s="6">
-        <v>10000</v>
+        <v>50</v>
+      </c>
+      <c r="B44" s="1">
+        <v>35000</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B45" s="6">
-        <v>5000</v>
+      <c r="A45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="1">
+        <v>25000</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B46" s="1">
-        <v>40000</v>
+        <v>55000</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B47" s="6">
-        <v>30000</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>126</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="B48" s="1">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="B49" s="1">
-        <v>40000</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>76</v>
+        <v>10000</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="1">
-        <v>40000</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>34</v>
+        <v>121</v>
+      </c>
+      <c r="B50" s="6">
+        <v>5000</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B51" s="1">
-        <v>100000</v>
+        <v>51000</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B52" s="6">
-        <v>45000</v>
+        <v>14</v>
+      </c>
+      <c r="B52" s="1">
+        <v>200000</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="1">
-        <v>50000</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E53" s="1">
-        <v>75000</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>34</v>
+        <v>110</v>
+      </c>
+      <c r="B53" s="6">
+        <v>10000</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B54" s="6">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B55" s="6">
-        <v>8000</v>
+        <v>11</v>
+      </c>
+      <c r="B55" s="1">
+        <v>40000</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="B56" s="6">
-        <v>4000</v>
+        <v>30000</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B57" s="6">
-        <v>25000</v>
+        <v>62</v>
+      </c>
+      <c r="B57" s="7">
+        <v>7000</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58" s="1">
-        <v>120000</v>
+        <v>6500</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="B59" s="1">
-        <v>42000</v>
+        <v>40000</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>76</v>
@@ -1608,113 +1679,122 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B60" s="1">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B61" s="6">
-        <v>5000</v>
+        <v>56</v>
+      </c>
+      <c r="B61" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="B62" s="1">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B63" s="6">
-        <v>40000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64" s="6">
-        <v>5000</v>
+        <v>57</v>
+      </c>
+      <c r="B64" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64" s="1">
+        <v>75000</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
-        <v>124</v>
+      <c r="A65" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="B65" s="6">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B66" s="1">
-        <v>50000</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>76</v>
+      <c r="A66" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" s="7">
+        <v>20000</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B67" s="1">
-        <v>150000</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>34</v>
+        <v>100</v>
+      </c>
+      <c r="B67" s="6">
+        <v>8000</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68" s="1">
-        <v>20000</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>9</v>
+        <v>130</v>
+      </c>
+      <c r="B68" s="6">
+        <v>4000</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B69" s="6">
-        <v>7000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B70" s="6">
-        <v>5000</v>
+        <v>58</v>
+      </c>
+      <c r="B70" s="1">
+        <v>120000</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B71" s="1">
-        <v>23000</v>
+        <v>42000</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>76</v>
@@ -1722,29 +1802,183 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B72" s="6">
-        <v>5000</v>
+        <v>59</v>
+      </c>
+      <c r="B72" s="1">
+        <v>30000</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" s="1">
+        <v>35000</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" s="6">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B78" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" s="1">
+        <v>150000</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" s="7">
+        <v>20000</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83" s="1">
+        <v>23000</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B84" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" s="7">
+        <v>6000</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B86" s="1">
         <v>31000</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B87" s="1">
+        <v>12000</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C72">
-    <sortCondition ref="A1:A72"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C84">
+    <sortCondition ref="A1:A84"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="C49" r:id="rId1" xr:uid="{37F67023-3909-4480-8C60-59E3CC29E3D4}"/>
+    <hyperlink ref="C20" r:id="rId2" xr:uid="{6321DB91-1CD6-4C63-AA3A-A5AC77168BE7}"/>
+    <hyperlink ref="C66" r:id="rId3" xr:uid="{F87B8590-9833-4F35-A64F-7F91522C45FE}"/>
+    <hyperlink ref="C87" r:id="rId4" xr:uid="{F32C8E9D-B673-42DE-B9BE-FB1A25785D42}"/>
+    <hyperlink ref="C22" r:id="rId5" xr:uid="{6C1D22BB-7C34-450A-88D3-BE288E625F45}"/>
+    <hyperlink ref="C14" r:id="rId6" xr:uid="{FBEAA9DA-9412-44C1-9AC4-05AB5BAB4F1B}"/>
+    <hyperlink ref="C42" r:id="rId7" xr:uid="{AD0938D7-8921-4AD2-96F0-669DDFA595B9}"/>
+    <hyperlink ref="C34" r:id="rId8" xr:uid="{82B1FD0D-F398-413E-800F-7E50060E50B1}"/>
+    <hyperlink ref="C39" r:id="rId9" xr:uid="{ED94E0A0-E6FE-441B-A8C2-6272C3E013C0}"/>
+    <hyperlink ref="C5" r:id="rId10" xr:uid="{5F130287-BFCF-430C-AA71-9ABBE9897E79}"/>
+    <hyperlink ref="C18" r:id="rId11" xr:uid="{940BEE4A-F0A7-4648-B576-B82039E6E88F}"/>
+    <hyperlink ref="C57" r:id="rId12" xr:uid="{7A2009FB-DA4E-4520-8E08-B3FA916D2BC0}"/>
+    <hyperlink ref="C85" r:id="rId13" xr:uid="{74C2EB86-E6C7-40C4-BD13-32F1F6E95F70}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/references/Pop_stats.xlsx
+++ b/references/Pop_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annaz\OneDrive\Desktop\Github\references\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\LU-python-course-project-2025\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C107AECA-06C1-43B1-8CD0-131A2B820521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB9727F-C130-4E86-A12C-26F22B2B3CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6F672C57-36C1-466A-ACC0-07BE7FC92B00}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F672C57-36C1-466A-ACC0-07BE7FC92B00}"/>
   </bookViews>
   <sheets>
     <sheet name="Recommended provinces" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="156">
   <si>
     <t>City/Province</t>
   </si>
@@ -1040,22 +1040,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15E336A-67D8-4AB6-AA9B-A495956018A1}">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>95</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>131</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>149</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>112</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>77</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>123</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>102</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>79</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>152</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>111</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>122</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>99</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>146</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>147</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>142</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>82</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>153</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>106</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>107</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>108</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>117</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>47</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>155</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>118</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>148</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>51</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>119</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>24</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>145</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>121</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>14</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>110</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>115</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>11</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>105</v>
       </c>
@@ -1644,317 +1644,301 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="7">
-        <v>7000</v>
-      </c>
-      <c r="C57" s="8" t="s">
+        <v>6500</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B58" s="1">
-        <v>6500</v>
+        <v>40000</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B59" s="1">
         <v>40000</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B61" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="6">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" s="1">
+        <v>75000</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" s="7">
+        <v>20000</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66" s="6">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" s="6">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" s="1">
+        <v>120000</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="1">
+        <v>42000</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60" s="1">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B71" s="1">
+        <v>30000</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B72" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B73" s="1">
+        <v>35000</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" s="6">
         <v>40000</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" s="1">
-        <v>100000</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B62" s="1">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" s="1">
+        <v>150000</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" s="1">
         <v>20000</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C78" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79" s="7">
+        <v>20000</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B63" s="6">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B64" s="1">
-        <v>50000</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E64" s="1">
-        <v>75000</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B65" s="6">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B66" s="7">
-        <v>20000</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B67" s="6">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B68" s="6">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B69" s="6">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B70" s="1">
-        <v>120000</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B71" s="1">
-        <v>42000</v>
-      </c>
-      <c r="C71" s="1" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" s="1">
+        <v>23000</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B72" s="1">
-        <v>30000</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B73" s="6">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B74" s="1">
-        <v>35000</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B75" s="6">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B76" s="6">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B77" s="6">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B78" s="1">
-        <v>50000</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B79" s="1">
-        <v>150000</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B80" s="1">
-        <v>20000</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B81" s="7">
-        <v>20000</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B82" s="6">
         <v>5000</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B83" s="1">
-        <v>23000</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+      <c r="B83" s="7">
+        <v>6000</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B84" s="6">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+      <c r="B84" s="1">
+        <v>31000</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B85" s="7">
-        <v>6000</v>
+        <v>150</v>
+      </c>
+      <c r="B85" s="1">
+        <v>12000</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B86" s="1">
-        <v>31000</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B87" s="1">
-        <v>12000</v>
-      </c>
-      <c r="C87" s="8" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1965,8 +1949,8 @@
   <hyperlinks>
     <hyperlink ref="C49" r:id="rId1" xr:uid="{37F67023-3909-4480-8C60-59E3CC29E3D4}"/>
     <hyperlink ref="C20" r:id="rId2" xr:uid="{6321DB91-1CD6-4C63-AA3A-A5AC77168BE7}"/>
-    <hyperlink ref="C66" r:id="rId3" xr:uid="{F87B8590-9833-4F35-A64F-7F91522C45FE}"/>
-    <hyperlink ref="C87" r:id="rId4" xr:uid="{F32C8E9D-B673-42DE-B9BE-FB1A25785D42}"/>
+    <hyperlink ref="C65" r:id="rId3" xr:uid="{F87B8590-9833-4F35-A64F-7F91522C45FE}"/>
+    <hyperlink ref="C85" r:id="rId4" xr:uid="{F32C8E9D-B673-42DE-B9BE-FB1A25785D42}"/>
     <hyperlink ref="C22" r:id="rId5" xr:uid="{6C1D22BB-7C34-450A-88D3-BE288E625F45}"/>
     <hyperlink ref="C14" r:id="rId6" xr:uid="{FBEAA9DA-9412-44C1-9AC4-05AB5BAB4F1B}"/>
     <hyperlink ref="C42" r:id="rId7" xr:uid="{AD0938D7-8921-4AD2-96F0-669DDFA595B9}"/>
@@ -1974,8 +1958,8 @@
     <hyperlink ref="C39" r:id="rId9" xr:uid="{ED94E0A0-E6FE-441B-A8C2-6272C3E013C0}"/>
     <hyperlink ref="C5" r:id="rId10" xr:uid="{5F130287-BFCF-430C-AA71-9ABBE9897E79}"/>
     <hyperlink ref="C18" r:id="rId11" xr:uid="{940BEE4A-F0A7-4648-B576-B82039E6E88F}"/>
-    <hyperlink ref="C57" r:id="rId12" xr:uid="{7A2009FB-DA4E-4520-8E08-B3FA916D2BC0}"/>
-    <hyperlink ref="C85" r:id="rId13" xr:uid="{74C2EB86-E6C7-40C4-BD13-32F1F6E95F70}"/>
+    <hyperlink ref="D57" r:id="rId12" xr:uid="{7A2009FB-DA4E-4520-8E08-B3FA916D2BC0}"/>
+    <hyperlink ref="C83" r:id="rId13" xr:uid="{74C2EB86-E6C7-40C4-BD13-32F1F6E95F70}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId14"/>
@@ -1991,17 +1975,17 @@
       <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2021,7 +2005,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -2032,7 +2016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -2043,7 +2027,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,7 +2038,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -2065,7 +2049,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -2076,7 +2060,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>77</v>
       </c>
@@ -2087,7 +2071,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -2105,7 +2089,7 @@
       </c>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -2122,7 +2106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -2133,7 +2117,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -2144,7 +2128,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -2155,7 +2139,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>73</v>
       </c>
@@ -2166,7 +2150,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -2177,7 +2161,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -2188,7 +2172,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -2205,7 +2189,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -2222,7 +2206,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -2233,7 +2217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -2244,7 +2228,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
@@ -2255,7 +2239,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -2266,7 +2250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -2277,7 +2261,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
@@ -2288,7 +2272,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
@@ -2299,7 +2283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -2310,7 +2294,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
@@ -2327,7 +2311,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -2344,7 +2328,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -2355,7 +2339,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
@@ -2366,7 +2350,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
@@ -2377,7 +2361,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>137</v>
       </c>
@@ -2388,7 +2372,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
@@ -2399,7 +2383,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
@@ -2410,7 +2394,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
@@ -2427,7 +2411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>29</v>
       </c>
@@ -2438,7 +2422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>49</v>
       </c>
@@ -2449,7 +2433,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>23</v>
       </c>
@@ -2460,7 +2444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
@@ -2471,7 +2455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -2482,7 +2466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>10</v>
       </c>
@@ -2493,7 +2477,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>10</v>
       </c>
@@ -2504,7 +2488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -2515,7 +2499,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -2526,7 +2510,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -2537,7 +2521,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -2554,7 +2538,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
@@ -2565,7 +2549,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -2576,7 +2560,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>85</v>
       </c>
@@ -2587,7 +2571,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>24</v>
       </c>
@@ -2598,7 +2582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
@@ -2609,7 +2593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
@@ -2620,7 +2604,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -2631,7 +2615,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>14</v>
       </c>
@@ -2648,7 +2632,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>14</v>
       </c>
@@ -2659,7 +2643,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>11</v>
       </c>
@@ -2676,7 +2660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>19</v>
       </c>
@@ -2693,7 +2677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>62</v>
       </c>
@@ -2710,7 +2694,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
@@ -2727,7 +2711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
@@ -2738,7 +2722,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>89</v>
       </c>
@@ -2749,7 +2733,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>56</v>
       </c>
@@ -2760,7 +2744,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>57</v>
       </c>
@@ -2777,7 +2761,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>20</v>
       </c>
@@ -2788,7 +2772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>27</v>
       </c>
@@ -2799,7 +2783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>58</v>
       </c>
@@ -2816,7 +2800,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>91</v>
       </c>
@@ -2827,7 +2811,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2850,7 +2834,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>71</v>
       </c>
@@ -2861,7 +2845,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>101</v>
       </c>
@@ -2872,7 +2856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -2883,7 +2867,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>60</v>
       </c>
@@ -2900,7 +2884,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>32</v>
       </c>
@@ -2911,7 +2895,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>32</v>
       </c>
@@ -2922,7 +2906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>15</v>
       </c>
@@ -2933,7 +2917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>25</v>
       </c>
@@ -2944,7 +2928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>72</v>
       </c>
@@ -2955,7 +2939,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>28</v>
       </c>
@@ -2966,7 +2950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>94</v>
       </c>
@@ -2977,7 +2961,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>61</v>
       </c>
@@ -2994,7 +2978,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>53</v>
       </c>
@@ -3005,7 +2989,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>102</v>
       </c>
@@ -3013,7 +2997,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>103</v>
       </c>
@@ -3021,7 +3005,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>104</v>
       </c>
@@ -3029,7 +3013,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>105</v>
       </c>
@@ -3040,7 +3024,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>106</v>
       </c>
@@ -3051,7 +3035,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>107</v>
       </c>
@@ -3062,7 +3046,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>108</v>
       </c>
@@ -3070,7 +3054,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>109</v>
       </c>
@@ -3078,7 +3062,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>110</v>
       </c>
@@ -3086,7 +3070,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>111</v>
       </c>
@@ -3094,7 +3078,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>112</v>
       </c>
@@ -3102,7 +3086,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>113</v>
       </c>
@@ -3110,7 +3094,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>114</v>
       </c>
@@ -3118,7 +3102,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>33</v>
       </c>
@@ -3126,7 +3110,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>115</v>
       </c>
@@ -3134,7 +3118,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>116</v>
       </c>
@@ -3142,7 +3126,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>117</v>
       </c>
@@ -3150,7 +3134,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>118</v>
       </c>
@@ -3158,7 +3142,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>119</v>
       </c>
@@ -3166,7 +3150,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>120</v>
       </c>
@@ -3174,7 +3158,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>121</v>
       </c>
@@ -3182,7 +3166,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>122</v>
       </c>
@@ -3190,7 +3174,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>123</v>
       </c>
@@ -3198,7 +3182,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>124</v>
       </c>
@@ -3206,7 +3190,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>129</v>
       </c>
@@ -3214,7 +3198,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>130</v>
       </c>
@@ -3222,7 +3206,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>131</v>
       </c>
@@ -3230,7 +3214,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>133</v>
       </c>
@@ -3241,7 +3225,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>134</v>
       </c>
@@ -3252,7 +3236,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>135</v>
       </c>
@@ -3263,7 +3247,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>136</v>
       </c>
@@ -3274,7 +3258,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>138</v>
       </c>
@@ -3285,7 +3269,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>139</v>
       </c>
@@ -3296,7 +3280,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>140</v>
       </c>

--- a/references/Pop_stats.xlsx
+++ b/references/Pop_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\LU-python-course-project-2025\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB9727F-C130-4E86-A12C-26F22B2B3CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DD7FB5-F154-49C2-A854-0FBB1C701090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F672C57-36C1-466A-ACC0-07BE7FC92B00}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6F672C57-36C1-466A-ACC0-07BE7FC92B00}"/>
   </bookViews>
   <sheets>
     <sheet name="Recommended provinces" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="157">
   <si>
     <t>City/Province</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>Lund (Zviedrija)</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/europe/comments/4kdvo1/the_thirty_largest_cities_in_europe_by_population/#lightbox</t>
   </si>
 </sst>
 </file>
@@ -673,15 +676,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>357927</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>96523</xdr:rowOff>
+      <xdr:colOff>557952</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>153673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>570941</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>86998</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>161366</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>144148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -710,7 +713,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10540152" y="96523"/>
+          <a:off x="10740177" y="344173"/>
           <a:ext cx="7528214" cy="5133975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1042,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15E336A-67D8-4AB6-AA9B-A495956018A1}">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
@@ -1970,9 +1973,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66176A7-21DE-4132-A487-5D3F9EEA404F}">
   <dimension ref="A1:R114"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,7 +2192,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -2206,7 +2209,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -2217,7 +2220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -2228,7 +2231,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
@@ -2239,7 +2242,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -2250,7 +2253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -2261,7 +2264,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
@@ -2272,7 +2275,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
@@ -2283,7 +2286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -2294,7 +2297,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
@@ -2311,7 +2314,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -2328,7 +2331,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -2339,7 +2342,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
@@ -2350,7 +2353,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
@@ -2360,8 +2363,11 @@
       <c r="C30" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O30" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>137</v>
       </c>
@@ -2372,7 +2378,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
